--- a/INTyADMIN/Plaeación del proyecto/Matriz de Comunicación/Matriz de Comunicación IECA.xlsx
+++ b/INTyADMIN/Plaeación del proyecto/Matriz de Comunicación/Matriz de Comunicación IECA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Proyecto\v2 SSH\Aplicaci-n-para-control-de-cursos-de-capacitaci-n\INTyADMIN\Plaeación del proyecto\Matriz de Comunicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C182FE-8B38-479E-A04A-33458E5E5AAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005790AC-D8D1-41C2-9A6A-72B54C46A852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{CE935930-F7CD-4ABE-90D2-6B607FD3726C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{CE935930-F7CD-4ABE-90D2-6B607FD3726C}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz de comunicaciones" sheetId="1" r:id="rId1"/>
@@ -646,9 +646,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,6 +662,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -16124,8 +16124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE51A65-4F33-48EC-8902-538991F10F6C}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16145,7 +16145,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="32"/>
+      <c r="A1" s="38"/>
       <c r="B1" s="29" t="s">
         <v>36</v>
       </c>
@@ -16188,7 +16188,7 @@
       <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:16" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="29"/>
       <c r="C2" s="31"/>
       <c r="D2" s="24"/>
@@ -16205,7 +16205,7 @@
       <c r="P2" s="24"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="29"/>
       <c r="C3" s="27" t="s">
         <v>18</v>
@@ -16248,7 +16248,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="29"/>
       <c r="C4" s="28"/>
       <c r="D4" s="25"/>
@@ -16304,8 +16304,8 @@
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -16322,8 +16322,8 @@
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -16340,8 +16340,8 @@
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -16358,8 +16358,8 @@
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -16376,8 +16376,8 @@
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -16394,8 +16394,8 @@
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -16412,8 +16412,8 @@
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -16430,8 +16430,8 @@
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -16448,8 +16448,8 @@
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -16466,8 +16466,8 @@
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -16484,8 +16484,8 @@
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -16502,8 +16502,8 @@
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -16520,8 +16520,8 @@
       <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -16538,8 +16538,8 @@
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -16556,8 +16556,8 @@
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -16574,8 +16574,8 @@
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -16592,8 +16592,8 @@
       <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -16610,8 +16610,8 @@
       <c r="B24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -16625,10 +16625,10 @@
       <c r="P24" s="1"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="34"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C28" s="6" t="s">
@@ -16639,10 +16639,10 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="36"/>
+      <c r="D29" s="35"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
@@ -16734,8 +16734,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
@@ -16750,17 +16748,9 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="P1:P2"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
@@ -16772,7 +16762,16 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C2"/>
@@ -16786,6 +16785,7 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -16797,8 +16797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC08290-36EB-4318-AC77-9AFB04627EF0}">
   <dimension ref="A6:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
